--- a/data/pca/factorExposure/factorExposure_2011-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01015985716961077</v>
+        <v>-0.01588188402941589</v>
       </c>
       <c r="C2">
-        <v>0.003147178162196737</v>
+        <v>0.004473356082518694</v>
       </c>
       <c r="D2">
-        <v>0.009677300191612894</v>
+        <v>0.005324294276825041</v>
       </c>
       <c r="E2">
-        <v>0.01915360317439125</v>
+        <v>0.01501836006249489</v>
       </c>
       <c r="F2">
-        <v>0.01130236374336395</v>
+        <v>0.0004633145854863695</v>
       </c>
       <c r="G2">
-        <v>-0.02149964067252401</v>
+        <v>-0.018966456985436</v>
       </c>
       <c r="H2">
-        <v>-0.03897883810404432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01258348452564418</v>
+      </c>
+      <c r="I2">
+        <v>0.003513597145942614</v>
+      </c>
+      <c r="J2">
+        <v>-0.01660966838775884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1092863882175604</v>
+        <v>-0.1209970792225108</v>
       </c>
       <c r="C4">
-        <v>-0.01800461492626507</v>
+        <v>0.05393548793935615</v>
       </c>
       <c r="D4">
-        <v>0.07811346584171922</v>
+        <v>0.009410975491172891</v>
       </c>
       <c r="E4">
-        <v>0.03621470040321887</v>
+        <v>0.003256027631145336</v>
       </c>
       <c r="F4">
-        <v>0.03000850611720613</v>
+        <v>0.005981041731868152</v>
       </c>
       <c r="G4">
-        <v>-0.02435631592402301</v>
+        <v>-0.004192742211636058</v>
       </c>
       <c r="H4">
-        <v>0.03624082168207791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.04471125868396945</v>
+      </c>
+      <c r="I4">
+        <v>0.1399068176222124</v>
+      </c>
+      <c r="J4">
+        <v>0.03241207192055624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1279002505474064</v>
+        <v>-0.1187463187365467</v>
       </c>
       <c r="C6">
-        <v>-0.03159380930491604</v>
+        <v>-0.003309790835739808</v>
       </c>
       <c r="D6">
-        <v>-0.02871737777660971</v>
+        <v>0.009693893087495483</v>
       </c>
       <c r="E6">
-        <v>0.02562226124137323</v>
+        <v>0.01904558178045177</v>
       </c>
       <c r="F6">
-        <v>-0.2561672103118128</v>
+        <v>0.03064230752918587</v>
       </c>
       <c r="G6">
-        <v>0.1557736793565051</v>
+        <v>0.04506871576273505</v>
       </c>
       <c r="H6">
-        <v>0.2504179650423882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05805761672635271</v>
+      </c>
+      <c r="I6">
+        <v>0.03345158991248326</v>
+      </c>
+      <c r="J6">
+        <v>-0.1729956524001149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.09072386318435749</v>
+        <v>-0.08036896240082983</v>
       </c>
       <c r="C7">
-        <v>-0.0352180207829367</v>
+        <v>0.05210159847314195</v>
       </c>
       <c r="D7">
-        <v>0.02549491030948376</v>
+        <v>0.04045024133446935</v>
       </c>
       <c r="E7">
-        <v>0.04960359744655197</v>
+        <v>0.04713775810239408</v>
       </c>
       <c r="F7">
-        <v>-0.009098888758776931</v>
+        <v>0.007113428998009836</v>
       </c>
       <c r="G7">
-        <v>-0.005926363457175234</v>
+        <v>-0.0416481042197278</v>
       </c>
       <c r="H7">
-        <v>0.01659822380782865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02743708244109538</v>
+      </c>
+      <c r="I7">
+        <v>0.04437171711998213</v>
+      </c>
+      <c r="J7">
+        <v>0.06056396925020834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04085928661678791</v>
+        <v>-0.04970274303876612</v>
       </c>
       <c r="C8">
-        <v>0.03569869071719267</v>
+        <v>0.002849510241200674</v>
       </c>
       <c r="D8">
-        <v>0.1122244394444003</v>
+        <v>0.005644519934964185</v>
       </c>
       <c r="E8">
-        <v>0.08130251864991613</v>
+        <v>0.01979096711920823</v>
       </c>
       <c r="F8">
-        <v>0.009193672901313239</v>
+        <v>-0.008479070053842561</v>
       </c>
       <c r="G8">
-        <v>-0.1510445615010398</v>
+        <v>0.001248294991432813</v>
       </c>
       <c r="H8">
-        <v>0.1215068064553701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.0576353548876638</v>
+      </c>
+      <c r="I8">
+        <v>0.1123914032083091</v>
+      </c>
+      <c r="J8">
+        <v>-0.03236785080489272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09521734335003376</v>
+        <v>-0.09489554548533945</v>
       </c>
       <c r="C9">
-        <v>-0.03564664037866914</v>
+        <v>0.05454080241980933</v>
       </c>
       <c r="D9">
-        <v>0.06229599781895327</v>
+        <v>-0.004949224472672304</v>
       </c>
       <c r="E9">
-        <v>0.03783128688080142</v>
+        <v>0.0158437746224576</v>
       </c>
       <c r="F9">
-        <v>0.01666535723971651</v>
+        <v>-0.006119506873144079</v>
       </c>
       <c r="G9">
-        <v>-0.06230374224369338</v>
+        <v>-0.01689132361115899</v>
       </c>
       <c r="H9">
-        <v>0.06133550262709743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.05998451862606659</v>
+      </c>
+      <c r="I9">
+        <v>0.1202468533685256</v>
+      </c>
+      <c r="J9">
+        <v>0.006221682438521997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03869987853003672</v>
+        <v>-0.07475504751510607</v>
       </c>
       <c r="C10">
-        <v>0.1751943678293527</v>
+        <v>-0.1827080244459635</v>
       </c>
       <c r="D10">
-        <v>0.03748945130341138</v>
+        <v>-0.0137600961804191</v>
       </c>
       <c r="E10">
-        <v>0.09485688463889344</v>
+        <v>-0.004941837987563205</v>
       </c>
       <c r="F10">
-        <v>-0.0256211322559145</v>
+        <v>0.01436246874883336</v>
       </c>
       <c r="G10">
-        <v>0.01831889830159399</v>
+        <v>-0.06773751233115707</v>
       </c>
       <c r="H10">
-        <v>0.0304910282279209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.007842674066971098</v>
+      </c>
+      <c r="I10">
+        <v>0.0121402200583423</v>
+      </c>
+      <c r="J10">
+        <v>0.02214163796982322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07643957925516119</v>
+        <v>-0.08494091344863401</v>
       </c>
       <c r="C11">
-        <v>-0.0568820714414774</v>
+        <v>0.05282913381668279</v>
       </c>
       <c r="D11">
-        <v>-0.02164628913728773</v>
+        <v>0.0268621004703406</v>
       </c>
       <c r="E11">
-        <v>0.02705187894087656</v>
+        <v>0.03452493683332331</v>
       </c>
       <c r="F11">
-        <v>0.02941558146180286</v>
+        <v>-0.04812190759048882</v>
       </c>
       <c r="G11">
-        <v>-0.1502020964348543</v>
+        <v>0.002831457880177134</v>
       </c>
       <c r="H11">
-        <v>-0.02312306097511273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.0725960189320284</v>
+      </c>
+      <c r="I11">
+        <v>0.102840384388161</v>
+      </c>
+      <c r="J11">
+        <v>-0.002408013058693344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07512758102293333</v>
+        <v>-0.08930153392430146</v>
       </c>
       <c r="C12">
-        <v>-0.04046252519712616</v>
+        <v>0.06257494142830695</v>
       </c>
       <c r="D12">
-        <v>0.02399738523894113</v>
+        <v>0.02998841362117512</v>
       </c>
       <c r="E12">
-        <v>0.007565056316588025</v>
+        <v>0.03712665834433356</v>
       </c>
       <c r="F12">
-        <v>-0.01260397135808397</v>
+        <v>-0.06597316408588881</v>
       </c>
       <c r="G12">
-        <v>-0.1535002963164307</v>
+        <v>-0.01304533286919576</v>
       </c>
       <c r="H12">
-        <v>-0.01428992148818986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08205906410322696</v>
+      </c>
+      <c r="I12">
+        <v>0.08103426135150575</v>
+      </c>
+      <c r="J12">
+        <v>-0.03081818163029704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06124288620407663</v>
+        <v>-0.04823362479172416</v>
       </c>
       <c r="C13">
-        <v>-0.005902456652811527</v>
+        <v>0.02466137852241644</v>
       </c>
       <c r="D13">
-        <v>0.01404098170208817</v>
+        <v>-0.02773297485239715</v>
       </c>
       <c r="E13">
-        <v>0.01031290388973686</v>
+        <v>0.01509626653881691</v>
       </c>
       <c r="F13">
-        <v>0.04914338633335336</v>
+        <v>0.0148280958261702</v>
       </c>
       <c r="G13">
-        <v>-0.07623774496676734</v>
+        <v>-0.004888538830798653</v>
       </c>
       <c r="H13">
-        <v>0.03673618837099986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.0607637108321428</v>
+      </c>
+      <c r="I13">
+        <v>0.06921857557110768</v>
+      </c>
+      <c r="J13">
+        <v>-0.03342526681117654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05368231868026876</v>
+        <v>-0.03319061117501404</v>
       </c>
       <c r="C14">
-        <v>-0.006133437704964673</v>
+        <v>0.007450427530751621</v>
       </c>
       <c r="D14">
-        <v>0.03771373170326128</v>
+        <v>0.006934152035458139</v>
       </c>
       <c r="E14">
-        <v>0.04443522090479307</v>
+        <v>0.002095895556524808</v>
       </c>
       <c r="F14">
-        <v>0.01657746929033636</v>
+        <v>-0.01362764346564384</v>
       </c>
       <c r="G14">
-        <v>-0.006094385434455025</v>
+        <v>-0.0103524908989732</v>
       </c>
       <c r="H14">
-        <v>0.1450090946553755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03122561567325002</v>
+      </c>
+      <c r="I14">
+        <v>0.07679341127645969</v>
+      </c>
+      <c r="J14">
+        <v>0.08088065937174703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03788952314746562</v>
+        <v>-0.02937966073079503</v>
       </c>
       <c r="C15">
-        <v>0.01103950920522774</v>
+        <v>0.0115121579380316</v>
       </c>
       <c r="D15">
-        <v>0.01047197985630569</v>
+        <v>-0.01053127429082279</v>
       </c>
       <c r="E15">
-        <v>0.01984562792824301</v>
+        <v>0.01499828271965494</v>
       </c>
       <c r="F15">
-        <v>0.001650656303788643</v>
+        <v>0.03080307608114319</v>
       </c>
       <c r="G15">
-        <v>0.007383797745895554</v>
+        <v>-0.007305384431932333</v>
       </c>
       <c r="H15">
-        <v>0.06994813020216177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03962651416892908</v>
+      </c>
+      <c r="I15">
+        <v>0.02649410024936423</v>
+      </c>
+      <c r="J15">
+        <v>0.03477466019320657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08268016515890637</v>
+        <v>-0.09217832125538335</v>
       </c>
       <c r="C16">
-        <v>-0.06807135591249124</v>
+        <v>0.05961306070286029</v>
       </c>
       <c r="D16">
-        <v>0.03266159446922556</v>
+        <v>0.04087727824904309</v>
       </c>
       <c r="E16">
-        <v>0.01054895335872851</v>
+        <v>0.04639311151189827</v>
       </c>
       <c r="F16">
-        <v>0.04514156222809943</v>
+        <v>-0.04959016291090351</v>
       </c>
       <c r="G16">
-        <v>-0.1270937686111658</v>
+        <v>-0.001316980878777611</v>
       </c>
       <c r="H16">
-        <v>-0.01942118021738695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09432920659076968</v>
+      </c>
+      <c r="I16">
+        <v>0.09386951641621749</v>
+      </c>
+      <c r="J16">
+        <v>0.009659696254330207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05664550276177348</v>
+        <v>-0.05283202772685018</v>
       </c>
       <c r="C20">
-        <v>-0.01769858361867611</v>
+        <v>0.02669545635577042</v>
       </c>
       <c r="D20">
-        <v>0.01171412019593685</v>
+        <v>0.03192567146276029</v>
       </c>
       <c r="E20">
-        <v>0.01794780229484045</v>
+        <v>0.004556147112391016</v>
       </c>
       <c r="F20">
-        <v>0.001091539585802306</v>
+        <v>0.01077097874924418</v>
       </c>
       <c r="G20">
-        <v>-0.1028064446148788</v>
+        <v>-0.004694927210690524</v>
       </c>
       <c r="H20">
-        <v>0.01791873194224799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.03472349634770237</v>
+      </c>
+      <c r="I20">
+        <v>0.05322703642051064</v>
+      </c>
+      <c r="J20">
+        <v>0.05384120433732065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02912170833523504</v>
+        <v>-0.02292194821945524</v>
       </c>
       <c r="C21">
-        <v>-0.03052255563427702</v>
+        <v>0.005151191520701195</v>
       </c>
       <c r="D21">
-        <v>0.002536930178909213</v>
+        <v>0.009571912148979303</v>
       </c>
       <c r="E21">
-        <v>0.004133966962289107</v>
+        <v>-0.03231897872160698</v>
       </c>
       <c r="F21">
-        <v>-0.07430768006899632</v>
+        <v>0.005937548817965584</v>
       </c>
       <c r="G21">
-        <v>0.1270732444600252</v>
+        <v>0.02793036978330276</v>
       </c>
       <c r="H21">
-        <v>0.06461873620337549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.02338848748431911</v>
+      </c>
+      <c r="I21">
+        <v>0.08651496244838069</v>
+      </c>
+      <c r="J21">
+        <v>0.01183352694435574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04839031117863293</v>
+        <v>-0.03446146237167572</v>
       </c>
       <c r="C22">
-        <v>-0.009075730401451069</v>
+        <v>-0.007272111367817182</v>
       </c>
       <c r="D22">
-        <v>0.5606657011971837</v>
+        <v>0.006998273561426655</v>
       </c>
       <c r="E22">
-        <v>-0.2284323718711772</v>
+        <v>0.1380384474211042</v>
       </c>
       <c r="F22">
-        <v>0.0789439269250579</v>
+        <v>0.6066748602974161</v>
       </c>
       <c r="G22">
-        <v>0.2469706013307384</v>
+        <v>-0.07311311082098051</v>
       </c>
       <c r="H22">
-        <v>-0.1016102167541176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.2281016824608355</v>
+      </c>
+      <c r="I22">
+        <v>-0.1136611854949046</v>
+      </c>
+      <c r="J22">
+        <v>-0.03021747638797959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04881116555048007</v>
+        <v>-0.03463746368880324</v>
       </c>
       <c r="C23">
-        <v>-0.009866480308476974</v>
+        <v>-0.006980226196669661</v>
       </c>
       <c r="D23">
-        <v>0.5602892649268204</v>
+        <v>0.007441814098923819</v>
       </c>
       <c r="E23">
-        <v>-0.2267639880930096</v>
+        <v>0.139806280827615</v>
       </c>
       <c r="F23">
-        <v>0.07908296497515617</v>
+        <v>0.6084296383846687</v>
       </c>
       <c r="G23">
-        <v>0.2489675891909728</v>
+        <v>-0.07284911655726298</v>
       </c>
       <c r="H23">
-        <v>-0.1013556718626023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.2292900512376186</v>
+      </c>
+      <c r="I23">
+        <v>-0.1105178516707725</v>
+      </c>
+      <c r="J23">
+        <v>-0.02955919271238936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0854098541487212</v>
+        <v>-0.09505150203944379</v>
       </c>
       <c r="C24">
-        <v>-0.04554087737945095</v>
+        <v>0.05662533073886519</v>
       </c>
       <c r="D24">
-        <v>0.02844552133067868</v>
+        <v>0.03563598700767164</v>
       </c>
       <c r="E24">
-        <v>0.03033169006779043</v>
+        <v>0.03387569616872232</v>
       </c>
       <c r="F24">
-        <v>0.009502970714421726</v>
+        <v>-0.04721705357395058</v>
       </c>
       <c r="G24">
-        <v>-0.1201383220412362</v>
+        <v>-0.01640359579897307</v>
       </c>
       <c r="H24">
-        <v>-0.002943492507825834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.08985040440138735</v>
+      </c>
+      <c r="I24">
+        <v>0.08772595838420012</v>
+      </c>
+      <c r="J24">
+        <v>-0.01114525653179281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07810646098252992</v>
+        <v>-0.09386480597160372</v>
       </c>
       <c r="C25">
-        <v>-0.02191416487439038</v>
+        <v>0.0380265368094705</v>
       </c>
       <c r="D25">
-        <v>0.02681216656620431</v>
+        <v>0.0263874740937122</v>
       </c>
       <c r="E25">
-        <v>0.01943530330764646</v>
+        <v>0.0347821062629611</v>
       </c>
       <c r="F25">
-        <v>-0.01497974869742755</v>
+        <v>-0.07198941919964134</v>
       </c>
       <c r="G25">
-        <v>-0.1219214391098249</v>
+        <v>-0.01598644145223628</v>
       </c>
       <c r="H25">
-        <v>-0.00926197782390711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.08522481026697226</v>
+      </c>
+      <c r="I25">
+        <v>0.08354838058532982</v>
+      </c>
+      <c r="J25">
+        <v>0.01075412878193601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0526385275949595</v>
+        <v>-0.04227986646722937</v>
       </c>
       <c r="C26">
-        <v>-0.02184540553167335</v>
+        <v>-0.009463128239743124</v>
       </c>
       <c r="D26">
-        <v>0.02112384634731643</v>
+        <v>0.02253237697887966</v>
       </c>
       <c r="E26">
-        <v>0.04937508960854944</v>
+        <v>0.0002129217916343493</v>
       </c>
       <c r="F26">
-        <v>0.04367915116951011</v>
+        <v>0.002129389462742349</v>
       </c>
       <c r="G26">
-        <v>-0.05155248278579899</v>
+        <v>0.0144102643115836</v>
       </c>
       <c r="H26">
-        <v>0.09064873870385021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05886882995948606</v>
+      </c>
+      <c r="I26">
+        <v>0.03295895522501756</v>
+      </c>
+      <c r="J26">
+        <v>0.07037197527023478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06282241259070195</v>
+        <v>-0.0809074434906546</v>
       </c>
       <c r="C28">
-        <v>0.3087805964337648</v>
+        <v>-0.3065002459482395</v>
       </c>
       <c r="D28">
-        <v>-0.01209686223236491</v>
+        <v>-0.09803798679489628</v>
       </c>
       <c r="E28">
-        <v>0.02258515842306064</v>
+        <v>0.01613278283520474</v>
       </c>
       <c r="F28">
-        <v>-0.03375671794430547</v>
+        <v>-0.02952116272993834</v>
       </c>
       <c r="G28">
-        <v>0.01002372455125233</v>
+        <v>-0.001488075042608766</v>
       </c>
       <c r="H28">
-        <v>-0.07585791207073068</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.03020791371158933</v>
+      </c>
+      <c r="I28">
+        <v>0.04446199060412667</v>
+      </c>
+      <c r="J28">
+        <v>-0.01517842604609557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05891306573655378</v>
+        <v>-0.03661931840567038</v>
       </c>
       <c r="C29">
-        <v>0.002330001033766513</v>
+        <v>0.008542536362186061</v>
       </c>
       <c r="D29">
-        <v>0.05344086634903414</v>
+        <v>-0.004790695511241515</v>
       </c>
       <c r="E29">
-        <v>0.02077751575614713</v>
+        <v>0.008618666443980079</v>
       </c>
       <c r="F29">
-        <v>0.02743152955224247</v>
+        <v>-0.02202483470139027</v>
       </c>
       <c r="G29">
-        <v>-0.02981233458656759</v>
+        <v>-0.02769595612381066</v>
       </c>
       <c r="H29">
-        <v>0.09988670072843768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.07560789152586032</v>
+      </c>
+      <c r="I29">
+        <v>0.07587072946083091</v>
+      </c>
+      <c r="J29">
+        <v>0.07142941857430295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1185367804004035</v>
+        <v>-0.1192949267434898</v>
       </c>
       <c r="C30">
-        <v>0.02907963802725074</v>
+        <v>0.05992587246504204</v>
       </c>
       <c r="D30">
-        <v>0.1710009985513967</v>
+        <v>-0.01288909058401941</v>
       </c>
       <c r="E30">
-        <v>0.01128859833287134</v>
+        <v>0.04558270904690542</v>
       </c>
       <c r="F30">
-        <v>-0.1097618670530501</v>
+        <v>-0.03527322396144221</v>
       </c>
       <c r="G30">
-        <v>-0.1874115265868179</v>
+        <v>0.03323611917853778</v>
       </c>
       <c r="H30">
-        <v>0.03831642582420947</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1408731457748666</v>
+      </c>
+      <c r="I30">
+        <v>0.08343645459497498</v>
+      </c>
+      <c r="J30">
+        <v>-0.2582588882267862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05436957681802998</v>
+        <v>-0.03635017984668728</v>
       </c>
       <c r="C31">
-        <v>-0.02432818329863007</v>
+        <v>0.02353682736283735</v>
       </c>
       <c r="D31">
-        <v>0.0047139917190884</v>
+        <v>0.02268984802323852</v>
       </c>
       <c r="E31">
-        <v>-0.01423982334281106</v>
+        <v>0.02326656645053474</v>
       </c>
       <c r="F31">
-        <v>0.02774483054981071</v>
+        <v>0.0009743883375067952</v>
       </c>
       <c r="G31">
-        <v>-0.01899274628116144</v>
+        <v>-0.003406279794220783</v>
       </c>
       <c r="H31">
-        <v>0.04136362527239588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.009764066152846919</v>
+      </c>
+      <c r="I31">
+        <v>0.04233374208774292</v>
+      </c>
+      <c r="J31">
+        <v>0.06070661494245587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03311956100181981</v>
+        <v>-0.05471381026616615</v>
       </c>
       <c r="C32">
-        <v>0.008158873149412901</v>
+        <v>0.003632399645153254</v>
       </c>
       <c r="D32">
-        <v>0.0874898722555284</v>
+        <v>0.01984587768983991</v>
       </c>
       <c r="E32">
-        <v>-0.03051551763323313</v>
+        <v>0.002174748496512544</v>
       </c>
       <c r="F32">
-        <v>0.1127532040109321</v>
+        <v>-0.05393752085465495</v>
       </c>
       <c r="G32">
-        <v>-0.03620512291890839</v>
+        <v>0.03987728213673486</v>
       </c>
       <c r="H32">
-        <v>0.04848416052322022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.04119210172240326</v>
+      </c>
+      <c r="I32">
+        <v>0.03686668670462227</v>
+      </c>
+      <c r="J32">
+        <v>-0.01357307469484572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1118604486658907</v>
+        <v>-0.1087590508408266</v>
       </c>
       <c r="C33">
-        <v>-0.01216887128714208</v>
+        <v>0.05513739315068985</v>
       </c>
       <c r="D33">
-        <v>0.01214291815273649</v>
+        <v>0.002920392676980532</v>
       </c>
       <c r="E33">
-        <v>-0.02779490085292757</v>
+        <v>0.0763937550442023</v>
       </c>
       <c r="F33">
-        <v>0.01975484336835385</v>
+        <v>-0.04810803943865263</v>
       </c>
       <c r="G33">
-        <v>-0.0646906162341175</v>
+        <v>-0.003118944581612791</v>
       </c>
       <c r="H33">
-        <v>0.08384265376378652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07915505402668151</v>
+      </c>
+      <c r="I33">
+        <v>0.05451809513185658</v>
+      </c>
+      <c r="J33">
+        <v>0.01234433530610939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06909751779585059</v>
+        <v>-0.08426853561503102</v>
       </c>
       <c r="C34">
-        <v>-0.04332453354821407</v>
+        <v>0.04636636242761934</v>
       </c>
       <c r="D34">
-        <v>0.009850310201144673</v>
+        <v>0.03408532975291634</v>
       </c>
       <c r="E34">
-        <v>-0.0001973089125217276</v>
+        <v>0.03785489734815307</v>
       </c>
       <c r="F34">
-        <v>0.0265043435275627</v>
+        <v>-0.05278625160060246</v>
       </c>
       <c r="G34">
-        <v>-0.09409416718661973</v>
+        <v>-0.009789661968968395</v>
       </c>
       <c r="H34">
-        <v>-0.003961967368335114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1038923756867155</v>
+      </c>
+      <c r="I34">
+        <v>0.07617728696214976</v>
+      </c>
+      <c r="J34">
+        <v>-0.006676577077391738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04223140866528741</v>
+        <v>-0.02151117818531812</v>
       </c>
       <c r="C35">
-        <v>-0.008133590099136674</v>
+        <v>0.01180714043034268</v>
       </c>
       <c r="D35">
-        <v>-0.01137407295026796</v>
+        <v>-0.006070362076942263</v>
       </c>
       <c r="E35">
-        <v>-0.009219768142054278</v>
+        <v>0.00888078052759224</v>
       </c>
       <c r="F35">
-        <v>-0.04149543600970868</v>
+        <v>-0.01425597357770177</v>
       </c>
       <c r="G35">
-        <v>-0.05085119825695613</v>
+        <v>-0.006906131888641956</v>
       </c>
       <c r="H35">
-        <v>-0.01146394576342854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.04800550004466248</v>
+      </c>
+      <c r="I35">
+        <v>0.04378405558369297</v>
+      </c>
+      <c r="J35">
+        <v>0.04380222292365186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0384931738778503</v>
+        <v>-0.02591983247663928</v>
       </c>
       <c r="C36">
-        <v>-0.001488637635794535</v>
+        <v>0.006791099344478167</v>
       </c>
       <c r="D36">
-        <v>0.03298898012669974</v>
+        <v>-0.00743173775613267</v>
       </c>
       <c r="E36">
-        <v>0.01873123107174589</v>
+        <v>0.003844032751015078</v>
       </c>
       <c r="F36">
-        <v>-0.004425998882207589</v>
+        <v>0.01015988289971438</v>
       </c>
       <c r="G36">
-        <v>-0.05560845349294819</v>
+        <v>0.01186965335453359</v>
       </c>
       <c r="H36">
-        <v>0.06284962590226924</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.02745957202067927</v>
+      </c>
+      <c r="I36">
+        <v>0.04703567225000786</v>
+      </c>
+      <c r="J36">
+        <v>0.01456127428640602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05498761484291222</v>
+        <v>-0.01821748748996111</v>
       </c>
       <c r="C38">
-        <v>-0.01780532233774371</v>
+        <v>0.01078706498057936</v>
       </c>
       <c r="D38">
-        <v>0.006335629935766095</v>
+        <v>0.009050888638629668</v>
       </c>
       <c r="E38">
-        <v>0.01201721572309285</v>
+        <v>0.01419387108873753</v>
       </c>
       <c r="F38">
-        <v>0.02837752520265464</v>
+        <v>0.01990265059022741</v>
       </c>
       <c r="G38">
-        <v>-0.05706612181820608</v>
+        <v>-0.01717012175868057</v>
       </c>
       <c r="H38">
-        <v>-0.007771859667980502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.00995465246695163</v>
+      </c>
+      <c r="I38">
+        <v>-0.03902016325819401</v>
+      </c>
+      <c r="J38">
+        <v>0.005147881083419157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1076857272566244</v>
+        <v>-0.1422518907829113</v>
       </c>
       <c r="C39">
-        <v>-0.04034100111142483</v>
+        <v>0.08924600896740045</v>
       </c>
       <c r="D39">
-        <v>0.05634721319061248</v>
+        <v>0.02851038483629757</v>
       </c>
       <c r="E39">
-        <v>0.01213924115231595</v>
+        <v>0.05164556951985023</v>
       </c>
       <c r="F39">
-        <v>0.02668795146505331</v>
+        <v>-0.1437429648539036</v>
       </c>
       <c r="G39">
-        <v>-0.1637827304195367</v>
+        <v>-0.02231004673590684</v>
       </c>
       <c r="H39">
-        <v>-0.07322441063277597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.153490899247704</v>
+      </c>
+      <c r="I39">
+        <v>0.0619322280141059</v>
+      </c>
+      <c r="J39">
+        <v>0.02725852385410356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04777428131720305</v>
+        <v>-0.01867359491707432</v>
       </c>
       <c r="C40">
-        <v>-0.01596364424016499</v>
+        <v>0.01379223996074268</v>
       </c>
       <c r="D40">
-        <v>0.06471245073764054</v>
+        <v>0.01607292528160008</v>
       </c>
       <c r="E40">
-        <v>-0.03673314351130169</v>
+        <v>0.002165126408003433</v>
       </c>
       <c r="F40">
-        <v>-0.01772511649160462</v>
+        <v>0.05558704420844884</v>
       </c>
       <c r="G40">
-        <v>-0.3034041760022381</v>
+        <v>0.00473791766391199</v>
       </c>
       <c r="H40">
-        <v>-0.01064867546287025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07256558339481053</v>
+      </c>
+      <c r="I40">
+        <v>0.09362648133107075</v>
+      </c>
+      <c r="J40">
+        <v>-0.05601458052155508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.05093365704612032</v>
+        <v>-0.02662598972843074</v>
       </c>
       <c r="C41">
-        <v>-0.02809665844959586</v>
+        <v>-0.005004958334336663</v>
       </c>
       <c r="D41">
-        <v>-0.0194066672302864</v>
+        <v>0.03033258216523648</v>
       </c>
       <c r="E41">
-        <v>0.009609481448809323</v>
+        <v>0.007357417023998359</v>
       </c>
       <c r="F41">
-        <v>0.03763359114635436</v>
+        <v>-0.01393940613634335</v>
       </c>
       <c r="G41">
-        <v>-0.05110929571368578</v>
+        <v>-0.01049352421766128</v>
       </c>
       <c r="H41">
-        <v>0.001763702423722987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.008419625232129729</v>
+      </c>
+      <c r="I41">
+        <v>0.02007464057445184</v>
+      </c>
+      <c r="J41">
+        <v>0.03980089660672693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07450106099559957</v>
+        <v>-0.0399634091696164</v>
       </c>
       <c r="C43">
-        <v>-0.02359518824169006</v>
+        <v>0.002366228233168148</v>
       </c>
       <c r="D43">
-        <v>0.02397434365876418</v>
+        <v>0.0385949356744912</v>
       </c>
       <c r="E43">
-        <v>0.01062587027805148</v>
+        <v>0.03726696561970024</v>
       </c>
       <c r="F43">
-        <v>0.03896002937259915</v>
+        <v>0.000838222545893615</v>
       </c>
       <c r="G43">
-        <v>-0.00990746582210838</v>
+        <v>-0.004903303566046234</v>
       </c>
       <c r="H43">
-        <v>-0.004778657186227445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.008598414995156126</v>
+      </c>
+      <c r="I43">
+        <v>0.0239261705824684</v>
+      </c>
+      <c r="J43">
+        <v>0.06344707921649123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08023621428667546</v>
+        <v>-0.127266794902435</v>
       </c>
       <c r="C44">
-        <v>-0.0067490879473116</v>
+        <v>0.07674334631434024</v>
       </c>
       <c r="D44">
-        <v>0.07620078789165674</v>
+        <v>-0.003046268568040345</v>
       </c>
       <c r="E44">
-        <v>0.09750653261141239</v>
+        <v>0.04323399619570591</v>
       </c>
       <c r="F44">
-        <v>0.07078775860376797</v>
+        <v>0.04755732235256998</v>
       </c>
       <c r="G44">
-        <v>-0.0858405365311343</v>
+        <v>-0.08222976058983494</v>
       </c>
       <c r="H44">
-        <v>0.02913054150571832</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2022593071584748</v>
+      </c>
+      <c r="I44">
+        <v>0.1309161662010252</v>
+      </c>
+      <c r="J44">
+        <v>-0.1957414791184075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05442780649379648</v>
+        <v>-0.02464817053761893</v>
       </c>
       <c r="C46">
-        <v>-0.0376351597305789</v>
+        <v>-0.001042038172592221</v>
       </c>
       <c r="D46">
-        <v>0.04981913348460962</v>
+        <v>0.0240967630790134</v>
       </c>
       <c r="E46">
-        <v>-0.002714081284593961</v>
+        <v>0.03278631444896717</v>
       </c>
       <c r="F46">
-        <v>0.0209944105744275</v>
+        <v>0.02720975738367442</v>
       </c>
       <c r="G46">
-        <v>-0.01493364981471007</v>
+        <v>-0.02352804748883439</v>
       </c>
       <c r="H46">
-        <v>0.08863681984117579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.0498289865105277</v>
+      </c>
+      <c r="I46">
+        <v>0.04453849480087746</v>
+      </c>
+      <c r="J46">
+        <v>0.08686957243112529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05024626539577215</v>
+        <v>-0.04189464207491824</v>
       </c>
       <c r="C47">
-        <v>-0.0003311848397016819</v>
+        <v>-0.002441168800850569</v>
       </c>
       <c r="D47">
-        <v>0.06634460863341107</v>
+        <v>0.01188619461080927</v>
       </c>
       <c r="E47">
-        <v>-0.03441877402712861</v>
+        <v>0.01314539759928093</v>
       </c>
       <c r="F47">
-        <v>-0.01323099557581712</v>
+        <v>0.0144074957147594</v>
       </c>
       <c r="G47">
-        <v>-0.02323040393791696</v>
+        <v>0.008276409225075141</v>
       </c>
       <c r="H47">
-        <v>0.0348434320889084</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.01988793820616398</v>
+      </c>
+      <c r="I47">
+        <v>0.03750568091084063</v>
+      </c>
+      <c r="J47">
+        <v>0.04894732265658187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04345173965210047</v>
+        <v>-0.03865759879343057</v>
       </c>
       <c r="C48">
-        <v>-0.002105799974455324</v>
+        <v>0.008438184230840629</v>
       </c>
       <c r="D48">
-        <v>0.03424318876860239</v>
+        <v>-0.01193367969174565</v>
       </c>
       <c r="E48">
-        <v>-0.04083265277602073</v>
+        <v>0.01054573246886805</v>
       </c>
       <c r="F48">
-        <v>-0.01579343599170004</v>
+        <v>-0.005158060287650209</v>
       </c>
       <c r="G48">
-        <v>-0.05154937894856533</v>
+        <v>0.00976049168625787</v>
       </c>
       <c r="H48">
-        <v>0.01728107079752014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05118018173330961</v>
+      </c>
+      <c r="I48">
+        <v>0.04785391864904329</v>
+      </c>
+      <c r="J48">
+        <v>0.05944564096369911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2448036056400797</v>
+        <v>-0.2270170079363725</v>
       </c>
       <c r="C49">
-        <v>-0.06208146779840476</v>
+        <v>0.002285086260522875</v>
       </c>
       <c r="D49">
-        <v>-0.08899839439854515</v>
+        <v>0.0662342051793552</v>
       </c>
       <c r="E49">
-        <v>0.01456363093706215</v>
+        <v>-0.0328764273314098</v>
       </c>
       <c r="F49">
-        <v>-0.07511049755148506</v>
+        <v>-0.01887881525288211</v>
       </c>
       <c r="G49">
-        <v>0.176129218566012</v>
+        <v>-0.07094060025591831</v>
       </c>
       <c r="H49">
-        <v>-0.1472475359305869</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1341245558735784</v>
+      </c>
+      <c r="I49">
+        <v>-0.200355922645168</v>
+      </c>
+      <c r="J49">
+        <v>-0.177983770506642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05545910077863526</v>
+        <v>-0.04311154442004854</v>
       </c>
       <c r="C50">
-        <v>-0.01624277417909351</v>
+        <v>0.01963400149706117</v>
       </c>
       <c r="D50">
-        <v>0.0159995341561083</v>
+        <v>0.02869401993980475</v>
       </c>
       <c r="E50">
-        <v>-0.01963597135412529</v>
+        <v>0.01562080259273746</v>
       </c>
       <c r="F50">
-        <v>0.03539538770396197</v>
+        <v>-0.006953516107802028</v>
       </c>
       <c r="G50">
-        <v>-0.006305734893179282</v>
+        <v>-0.005809200600572349</v>
       </c>
       <c r="H50">
-        <v>0.0638721394805279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03752729709496744</v>
+      </c>
+      <c r="I50">
+        <v>0.03601233099742818</v>
+      </c>
+      <c r="J50">
+        <v>0.04565287031099299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03480747355007204</v>
+        <v>-0.01546614682156723</v>
       </c>
       <c r="C51">
-        <v>-0.008634174235518779</v>
+        <v>-0.007171335362550205</v>
       </c>
       <c r="D51">
-        <v>0.003523021229057077</v>
+        <v>0.002061596510120275</v>
       </c>
       <c r="E51">
-        <v>0.02141368004969219</v>
+        <v>0.01661227464925236</v>
       </c>
       <c r="F51">
-        <v>0.02348802656900573</v>
+        <v>0.007468637456386621</v>
       </c>
       <c r="G51">
-        <v>0.01286851086050298</v>
+        <v>-0.02244340105831751</v>
       </c>
       <c r="H51">
-        <v>-0.04069375920466461</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02059864948883202</v>
+      </c>
+      <c r="I51">
+        <v>-0.00508334863042314</v>
+      </c>
+      <c r="J51">
+        <v>-0.01629961771910142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.09915644701820155</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.0685527063739072</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02680398458934716</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02372856982911953</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02821444735267528</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.004582673205224444</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.06533226926859458</v>
+      </c>
+      <c r="I52">
+        <v>-0.03144960688108761</v>
+      </c>
+      <c r="J52">
+        <v>0.08951151642181082</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.162510951813589</v>
+        <v>-0.1577114723347675</v>
       </c>
       <c r="C53">
-        <v>0.002134628446609942</v>
+        <v>0.02179966385291789</v>
       </c>
       <c r="D53">
-        <v>-0.05944994036361971</v>
+        <v>-0.003447199652013616</v>
       </c>
       <c r="E53">
-        <v>-0.04762517167752819</v>
+        <v>-0.01449248465951258</v>
       </c>
       <c r="F53">
-        <v>0.1947738446883872</v>
+        <v>0.01237969527592563</v>
       </c>
       <c r="G53">
-        <v>0.05581510583560147</v>
+        <v>-0.03616585004343606</v>
       </c>
       <c r="H53">
-        <v>0.0540399604711784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.02227724992594906</v>
+      </c>
+      <c r="I53">
+        <v>-0.1267535224722915</v>
+      </c>
+      <c r="J53">
+        <v>0.1615778472894938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05451070258637271</v>
+        <v>-0.0515402918958132</v>
       </c>
       <c r="C54">
-        <v>-0.004349741003121312</v>
+        <v>0.01183021351221874</v>
       </c>
       <c r="D54">
-        <v>0.03616777044782721</v>
+        <v>0.01330260681973897</v>
       </c>
       <c r="E54">
-        <v>0.002601117447598163</v>
+        <v>0.0168234027760011</v>
       </c>
       <c r="F54">
-        <v>-0.004052842991630515</v>
+        <v>0.01712754659683125</v>
       </c>
       <c r="G54">
-        <v>-0.05025597307025211</v>
+        <v>0.009748674431716335</v>
       </c>
       <c r="H54">
-        <v>0.09920900444407457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.06018512635534383</v>
+      </c>
+      <c r="I54">
+        <v>0.1371769256372183</v>
+      </c>
+      <c r="J54">
+        <v>0.05407026299312864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09694804228009232</v>
+        <v>-0.08999778516348735</v>
       </c>
       <c r="C55">
-        <v>-0.009388122043882138</v>
+        <v>0.02856564332599892</v>
       </c>
       <c r="D55">
-        <v>-0.008057893486116265</v>
+        <v>-0.01723046353227185</v>
       </c>
       <c r="E55">
-        <v>-0.02829327565412769</v>
+        <v>0.03538914656741049</v>
       </c>
       <c r="F55">
-        <v>0.1312986513608174</v>
+        <v>-0.02086405388800378</v>
       </c>
       <c r="G55">
-        <v>0.0006234209990940931</v>
+        <v>-0.01010453406039834</v>
       </c>
       <c r="H55">
-        <v>0.07928548025966262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.001999807325121771</v>
+      </c>
+      <c r="I55">
+        <v>-0.02460858007795187</v>
+      </c>
+      <c r="J55">
+        <v>0.1250854780501587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1656124733962582</v>
+        <v>-0.1618143035945879</v>
       </c>
       <c r="C56">
-        <v>0.0004286288080873157</v>
+        <v>0.03741660381915641</v>
       </c>
       <c r="D56">
-        <v>-0.06486929261999126</v>
+        <v>0.01288397308627608</v>
       </c>
       <c r="E56">
-        <v>-0.07468720662317724</v>
+        <v>0.01508010800734257</v>
       </c>
       <c r="F56">
-        <v>0.1805533134268361</v>
+        <v>-0.02346096311622897</v>
       </c>
       <c r="G56">
-        <v>0.03716178367103859</v>
+        <v>-0.0350310705237565</v>
       </c>
       <c r="H56">
-        <v>0.04531911612598314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.02671042850717888</v>
+      </c>
+      <c r="I56">
+        <v>-0.06848145949812907</v>
+      </c>
+      <c r="J56">
+        <v>0.1464767843500673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01958032816558</v>
+        <v>-0.03467265611267857</v>
       </c>
       <c r="C58">
-        <v>-0.07814897626663131</v>
+        <v>0.01569371146105549</v>
       </c>
       <c r="D58">
-        <v>0.2157566987729466</v>
+        <v>0.01797275455556027</v>
       </c>
       <c r="E58">
-        <v>-0.04653200517831262</v>
+        <v>0.01277468806937994</v>
       </c>
       <c r="F58">
-        <v>-0.4178828884682498</v>
+        <v>0.07724773298123716</v>
       </c>
       <c r="G58">
-        <v>-0.214075520711369</v>
+        <v>0.0006872455187158884</v>
       </c>
       <c r="H58">
-        <v>-0.2000362258103962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.0976039567064194</v>
+      </c>
+      <c r="I58">
+        <v>-0.01129472583357756</v>
+      </c>
+      <c r="J58">
+        <v>0.04091296427605696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1469530316124145</v>
+        <v>-0.1528243355827091</v>
       </c>
       <c r="C59">
-        <v>0.3816903401857313</v>
+        <v>-0.2994732462047125</v>
       </c>
       <c r="D59">
-        <v>-0.04468437444419326</v>
+        <v>-0.08841918342945598</v>
       </c>
       <c r="E59">
-        <v>0.05999672490128862</v>
+        <v>0.0239119123755991</v>
       </c>
       <c r="F59">
-        <v>0.06031270843709028</v>
+        <v>-0.04390890004523573</v>
       </c>
       <c r="G59">
-        <v>-0.01833322165590118</v>
+        <v>-0.0364513710457033</v>
       </c>
       <c r="H59">
-        <v>-0.02231854839730421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.07429345012755381</v>
+      </c>
+      <c r="I59">
+        <v>0.03573082282497519</v>
+      </c>
+      <c r="J59">
+        <v>0.01554518500691536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2785987556471924</v>
+        <v>-0.282757237424167</v>
       </c>
       <c r="C60">
-        <v>-0.05182183882504868</v>
+        <v>0.09120063968683269</v>
       </c>
       <c r="D60">
-        <v>-0.07018494492129169</v>
+        <v>0.02006604309245241</v>
       </c>
       <c r="E60">
-        <v>0.04640689635960616</v>
+        <v>-0.08746164454113917</v>
       </c>
       <c r="F60">
-        <v>-0.06773131468738734</v>
+        <v>0.001378983542284936</v>
       </c>
       <c r="G60">
-        <v>0.172941461611734</v>
+        <v>-0.1107711871120488</v>
       </c>
       <c r="H60">
-        <v>-0.1167325010661445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1437490191353195</v>
+      </c>
+      <c r="I60">
+        <v>-0.196535239785374</v>
+      </c>
+      <c r="J60">
+        <v>-0.4051699287388881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09231046892810224</v>
+        <v>-0.113433441921366</v>
       </c>
       <c r="C61">
-        <v>-0.02108315146901248</v>
+        <v>0.05615224184178596</v>
       </c>
       <c r="D61">
-        <v>0.02585920691938354</v>
+        <v>-0.0009070950476441058</v>
       </c>
       <c r="E61">
-        <v>0.01174066950214576</v>
+        <v>0.042402461457485</v>
       </c>
       <c r="F61">
-        <v>0.03651270120354642</v>
+        <v>-0.08498677406694168</v>
       </c>
       <c r="G61">
-        <v>-0.08129908933237874</v>
+        <v>-0.02564014123801566</v>
       </c>
       <c r="H61">
-        <v>-0.02088967022058311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1274989399767894</v>
+      </c>
+      <c r="I61">
+        <v>0.1390187867139549</v>
+      </c>
+      <c r="J61">
+        <v>0.03617889143959241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1439474002638258</v>
+        <v>-0.1587751663247556</v>
       </c>
       <c r="C62">
-        <v>-0.02897928176429208</v>
+        <v>0.03532472320319571</v>
       </c>
       <c r="D62">
-        <v>-0.1207968216483359</v>
+        <v>0.004034296123666802</v>
       </c>
       <c r="E62">
-        <v>-0.07314287999690754</v>
+        <v>-8.155142424798759e-05</v>
       </c>
       <c r="F62">
-        <v>0.1622431278437129</v>
+        <v>-0.01834912210307255</v>
       </c>
       <c r="G62">
-        <v>0.02890737392047753</v>
+        <v>-0.006717242050946883</v>
       </c>
       <c r="H62">
-        <v>0.08567973153900187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.002898749086567348</v>
+      </c>
+      <c r="I62">
+        <v>-0.09474719423545959</v>
+      </c>
+      <c r="J62">
+        <v>0.1362330865340154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04519925373293941</v>
+        <v>-0.04356576994612383</v>
       </c>
       <c r="C63">
-        <v>-0.01835715399705708</v>
+        <v>0.01024962137327566</v>
       </c>
       <c r="D63">
-        <v>3.213033481452627e-06</v>
+        <v>-0.006209778718964895</v>
       </c>
       <c r="E63">
-        <v>-0.01849366078699161</v>
+        <v>0.02376331889694133</v>
       </c>
       <c r="F63">
-        <v>-0.009827391096702989</v>
+        <v>-0.009801651170640977</v>
       </c>
       <c r="G63">
-        <v>-0.01863113079404506</v>
+        <v>0.03693719034553155</v>
       </c>
       <c r="H63">
-        <v>0.1132150011142976</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.03737389610925101</v>
+      </c>
+      <c r="I63">
+        <v>0.05920857798614075</v>
+      </c>
+      <c r="J63">
+        <v>0.06623723049625709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1132791857792018</v>
+        <v>-0.09728406614700288</v>
       </c>
       <c r="C64">
-        <v>-0.01020184474711017</v>
+        <v>0.01455072760132784</v>
       </c>
       <c r="D64">
-        <v>0.03715313843622912</v>
+        <v>0.01256631320619395</v>
       </c>
       <c r="E64">
-        <v>0.03524758101729816</v>
+        <v>-0.001220159300319862</v>
       </c>
       <c r="F64">
-        <v>-0.001342315320486276</v>
+        <v>-0.001987688324098881</v>
       </c>
       <c r="G64">
-        <v>-0.02569847337588881</v>
+        <v>-0.05672477378742477</v>
       </c>
       <c r="H64">
-        <v>0.001766477776246512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.03662739012838111</v>
+      </c>
+      <c r="I64">
+        <v>0.03830599950463857</v>
+      </c>
+      <c r="J64">
+        <v>-0.0282486235850451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1104817824024372</v>
+        <v>-0.1140756027467624</v>
       </c>
       <c r="C65">
-        <v>-0.03363418708908833</v>
+        <v>0.008203222856415199</v>
       </c>
       <c r="D65">
-        <v>0.02511032125791431</v>
+        <v>-0.02055979198179005</v>
       </c>
       <c r="E65">
-        <v>0.006950920910831557</v>
+        <v>-0.01527558173381443</v>
       </c>
       <c r="F65">
-        <v>-0.4393689361305977</v>
+        <v>0.01093339058367908</v>
       </c>
       <c r="G65">
-        <v>0.2017661260329518</v>
+        <v>0.07713150707310751</v>
       </c>
       <c r="H65">
-        <v>0.5740545971126324</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.04278910971267837</v>
+      </c>
+      <c r="I65">
+        <v>0.01456249128320497</v>
+      </c>
+      <c r="J65">
+        <v>-0.2110673970283893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1561289077770175</v>
+        <v>-0.1715416299695327</v>
       </c>
       <c r="C66">
-        <v>-0.04845782653650851</v>
+        <v>0.09757479595485506</v>
       </c>
       <c r="D66">
-        <v>0.004652930154346698</v>
+        <v>0.04441283637046158</v>
       </c>
       <c r="E66">
-        <v>0.0629529580021818</v>
+        <v>0.05597523750956346</v>
       </c>
       <c r="F66">
-        <v>0.08833311304229953</v>
+        <v>-0.156273505776962</v>
       </c>
       <c r="G66">
-        <v>-0.2868055638170994</v>
+        <v>-0.03510145851037594</v>
       </c>
       <c r="H66">
-        <v>-0.1163100197768062</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1461039532739153</v>
+      </c>
+      <c r="I66">
+        <v>0.05475375928269002</v>
+      </c>
+      <c r="J66">
+        <v>-0.01013114403079217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.108580000129959</v>
+        <v>-0.0845354181857999</v>
       </c>
       <c r="C67">
-        <v>-0.03834157442646646</v>
+        <v>0.0415989470581261</v>
       </c>
       <c r="D67">
-        <v>-0.01142842336301024</v>
+        <v>-0.004991730955792023</v>
       </c>
       <c r="E67">
-        <v>0.04160220642083083</v>
+        <v>0.07737811213358323</v>
       </c>
       <c r="F67">
-        <v>0.0523537118430898</v>
+        <v>0.01043811741052159</v>
       </c>
       <c r="G67">
-        <v>-0.03537624741603589</v>
+        <v>-0.02867799023182649</v>
       </c>
       <c r="H67">
-        <v>-0.01736288230201271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.07162079635384348</v>
+      </c>
+      <c r="I67">
+        <v>-0.03202646201142471</v>
+      </c>
+      <c r="J67">
+        <v>-0.0526509792381511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03811595483978363</v>
+        <v>-0.07205008796815877</v>
       </c>
       <c r="C68">
-        <v>0.2934438802277411</v>
+        <v>-0.2753475554200721</v>
       </c>
       <c r="D68">
-        <v>-0.006164778656786529</v>
+        <v>-0.08922472425330821</v>
       </c>
       <c r="E68">
-        <v>-0.02170714578265406</v>
+        <v>0.01152090497865192</v>
       </c>
       <c r="F68">
-        <v>-0.02258721464855099</v>
+        <v>-0.03666287171391002</v>
       </c>
       <c r="G68">
-        <v>0.0165517488833678</v>
+        <v>0.01301213783426047</v>
       </c>
       <c r="H68">
-        <v>0.02756976732188591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04521355704880647</v>
+      </c>
+      <c r="I68">
+        <v>0.04290477930646151</v>
+      </c>
+      <c r="J68">
+        <v>-0.01848664144502064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05104292861193124</v>
+        <v>-0.03875392376702571</v>
       </c>
       <c r="C69">
-        <v>-0.009513944840526603</v>
+        <v>0.006477175897874412</v>
       </c>
       <c r="D69">
-        <v>-0.007256300291032268</v>
+        <v>-0.0109302630737348</v>
       </c>
       <c r="E69">
-        <v>-0.03720428069618113</v>
+        <v>0.02596580681800614</v>
       </c>
       <c r="F69">
-        <v>-0.009151577387904944</v>
+        <v>0.002274156258265834</v>
       </c>
       <c r="G69">
-        <v>-0.01321411193569269</v>
+        <v>-0.005454433548940498</v>
       </c>
       <c r="H69">
-        <v>0.002675428997040855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.009902460598514592</v>
+      </c>
+      <c r="I69">
+        <v>-0.003036783140743949</v>
+      </c>
+      <c r="J69">
+        <v>0.022383285385544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.0820798061646556</v>
+        <v>-0.03985438840996267</v>
       </c>
       <c r="C70">
-        <v>-0.01008531742717269</v>
+        <v>-0.00360769681654873</v>
       </c>
       <c r="D70">
-        <v>-0.006947711590988766</v>
+        <v>-0.01951348654166447</v>
       </c>
       <c r="E70">
-        <v>0.05939350409030036</v>
+        <v>0.02681542345136834</v>
       </c>
       <c r="F70">
-        <v>0.01655516754492918</v>
+        <v>-0.0233802344022724</v>
       </c>
       <c r="G70">
-        <v>0.02775231299237942</v>
+        <v>-0.0606914989216539</v>
       </c>
       <c r="H70">
-        <v>-0.02621431099929182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02289446764306557</v>
+      </c>
+      <c r="I70">
+        <v>0.00619564658435377</v>
+      </c>
+      <c r="J70">
+        <v>0.0440743290077658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04734038189854887</v>
+        <v>-0.08251564541507957</v>
       </c>
       <c r="C71">
-        <v>0.2984554505666558</v>
+        <v>-0.289799879037884</v>
       </c>
       <c r="D71">
-        <v>-0.001487329735435865</v>
+        <v>-0.0954154779128913</v>
       </c>
       <c r="E71">
-        <v>0.004640987908861507</v>
+        <v>0.01372337021254171</v>
       </c>
       <c r="F71">
-        <v>-0.01003391835832744</v>
+        <v>-0.02748641736107807</v>
       </c>
       <c r="G71">
-        <v>-0.008814843266273976</v>
+        <v>-0.01365620453298841</v>
       </c>
       <c r="H71">
-        <v>-0.002800711470244923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04073943047062299</v>
+      </c>
+      <c r="I71">
+        <v>0.03925688415265373</v>
+      </c>
+      <c r="J71">
+        <v>-0.04048299825432761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.131805843277237</v>
+        <v>-0.1355252140700463</v>
       </c>
       <c r="C72">
-        <v>0.01664694793574363</v>
+        <v>-0.01900796140510817</v>
       </c>
       <c r="D72">
-        <v>-0.1099765608133143</v>
+        <v>0.0111656219104069</v>
       </c>
       <c r="E72">
-        <v>-0.1072848383937715</v>
+        <v>0.0213731325406551</v>
       </c>
       <c r="F72">
-        <v>-0.03253665078187729</v>
+        <v>-0.01146650981618674</v>
       </c>
       <c r="G72">
-        <v>-0.04101125402310872</v>
+        <v>0.04709747937944508</v>
       </c>
       <c r="H72">
-        <v>0.09771573053277276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03764463738988826</v>
+      </c>
+      <c r="I72">
+        <v>-0.005691268830383496</v>
+      </c>
+      <c r="J72">
+        <v>0.02084685766681459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2783514889569855</v>
+        <v>-0.240942861299539</v>
       </c>
       <c r="C73">
-        <v>-0.1368971661533933</v>
+        <v>0.05204328477377892</v>
       </c>
       <c r="D73">
-        <v>-0.1084971195392803</v>
+        <v>0.04475390814690584</v>
       </c>
       <c r="E73">
-        <v>0.1046878531835866</v>
+        <v>0.02013105426413357</v>
       </c>
       <c r="F73">
-        <v>-0.254714329958693</v>
+        <v>-0.063714606690173</v>
       </c>
       <c r="G73">
-        <v>0.2738190829572239</v>
+        <v>-0.1938489322383032</v>
       </c>
       <c r="H73">
-        <v>-0.3870690777184983</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2259325953084761</v>
+      </c>
+      <c r="I73">
+        <v>-0.3093677380960961</v>
+      </c>
+      <c r="J73">
+        <v>-0.2557314673059245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.100703182629415</v>
+        <v>-0.1073924839226585</v>
       </c>
       <c r="C74">
-        <v>-0.03270430059050936</v>
+        <v>0.02673087741611486</v>
       </c>
       <c r="D74">
-        <v>-0.01461547336621334</v>
+        <v>0.02718396296257175</v>
       </c>
       <c r="E74">
-        <v>-0.01588883762074018</v>
+        <v>0.02204636859591004</v>
       </c>
       <c r="F74">
-        <v>0.1013225723508761</v>
+        <v>-0.008520562522546783</v>
       </c>
       <c r="G74">
-        <v>0.04617297557845822</v>
+        <v>-0.01617887603695604</v>
       </c>
       <c r="H74">
-        <v>0.01892175388957779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.04591416636496056</v>
+      </c>
+      <c r="I74">
+        <v>-0.08163641734456557</v>
+      </c>
+      <c r="J74">
+        <v>0.1090533986652941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09340573389000298</v>
+        <v>-0.1203509612362012</v>
       </c>
       <c r="C75">
-        <v>-0.01665665123491855</v>
+        <v>0.03853420835753353</v>
       </c>
       <c r="D75">
-        <v>-0.04138726269150839</v>
+        <v>0.02298054661504801</v>
       </c>
       <c r="E75">
-        <v>-0.07532931922087061</v>
+        <v>0.01539998071638701</v>
       </c>
       <c r="F75">
-        <v>0.08733628096831972</v>
+        <v>-0.004324748503795752</v>
       </c>
       <c r="G75">
-        <v>0.04400305566576847</v>
+        <v>0.0163541939622928</v>
       </c>
       <c r="H75">
-        <v>0.01964313058015877</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.006008970052386861</v>
+      </c>
+      <c r="I75">
+        <v>-0.04860938056537979</v>
+      </c>
+      <c r="J75">
+        <v>0.1460080678716039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.141872152870836</v>
+        <v>-0.04511470182145447</v>
       </c>
       <c r="C76">
-        <v>-0.02663238936986892</v>
+        <v>0.002620417119328102</v>
       </c>
       <c r="D76">
-        <v>0.004757937722171311</v>
+        <v>0.01186965975017434</v>
       </c>
       <c r="E76">
-        <v>-0.0579322102560413</v>
+        <v>0.03211874772261744</v>
       </c>
       <c r="F76">
-        <v>0.2154187075749532</v>
+        <v>0.01410146596201866</v>
       </c>
       <c r="G76">
-        <v>0.09081767380917037</v>
+        <v>-0.03137850046591727</v>
       </c>
       <c r="H76">
-        <v>0.03105702604252483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04463493678004426</v>
+      </c>
+      <c r="I76">
+        <v>-0.03550382884510746</v>
+      </c>
+      <c r="J76">
+        <v>0.08327534772439953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.0781405452531319</v>
+        <v>-0.08223365064695336</v>
       </c>
       <c r="C77">
-        <v>0.006702126875053649</v>
+        <v>0.07699668027601582</v>
       </c>
       <c r="D77">
-        <v>0.07675428838076902</v>
+        <v>0.01630036474509853</v>
       </c>
       <c r="E77">
-        <v>0.1221004533446189</v>
+        <v>-0.00414638162070385</v>
       </c>
       <c r="F77">
-        <v>-0.1930272949850813</v>
+        <v>0.003897964004600343</v>
       </c>
       <c r="G77">
-        <v>-0.1799779608218973</v>
+        <v>-0.03348351335154016</v>
       </c>
       <c r="H77">
-        <v>-0.144909527807971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.01209490806625038</v>
+      </c>
+      <c r="I77">
+        <v>0.2150264212891715</v>
+      </c>
+      <c r="J77">
+        <v>-0.282383892315749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.231151277770644</v>
+        <v>-0.132610694252223</v>
       </c>
       <c r="C78">
-        <v>-0.04131100991646205</v>
+        <v>-0.00207492558259897</v>
       </c>
       <c r="D78">
-        <v>0.1987025332972435</v>
+        <v>0.1533658807567853</v>
       </c>
       <c r="E78">
-        <v>0.05311200232102824</v>
+        <v>0.2290783048824208</v>
       </c>
       <c r="F78">
-        <v>-0.04259721328693306</v>
+        <v>0.2863176040229148</v>
       </c>
       <c r="G78">
-        <v>-0.1321135337404337</v>
+        <v>0.1659105327690873</v>
       </c>
       <c r="H78">
-        <v>0.09287995897101635</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6529881487843254</v>
+      </c>
+      <c r="I78">
+        <v>0.4842531838215743</v>
+      </c>
+      <c r="J78">
+        <v>0.08681574889169327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1387523868729981</v>
+        <v>-0.1416236035318144</v>
       </c>
       <c r="C79">
-        <v>-0.006772453698854931</v>
+        <v>0.03321790437829934</v>
       </c>
       <c r="D79">
-        <v>-0.03155213775639765</v>
+        <v>0.0458594892165794</v>
       </c>
       <c r="E79">
-        <v>-0.04682141769465711</v>
+        <v>0.000722576207596503</v>
       </c>
       <c r="F79">
-        <v>0.109835658951557</v>
+        <v>-0.01575922603094861</v>
       </c>
       <c r="G79">
-        <v>-1.046136630599864e-05</v>
+        <v>-0.02023675025927913</v>
       </c>
       <c r="H79">
-        <v>0.07121310251733608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.03421286897358917</v>
+      </c>
+      <c r="I79">
+        <v>-0.06963341259131423</v>
+      </c>
+      <c r="J79">
+        <v>0.1184641253805646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03940973398643267</v>
+        <v>-0.07322703614501684</v>
       </c>
       <c r="C80">
-        <v>-0.0002016544733081236</v>
+        <v>0.05434904249012588</v>
       </c>
       <c r="D80">
-        <v>-0.04326345719745237</v>
+        <v>-0.01215740948124037</v>
       </c>
       <c r="E80">
-        <v>0.04505854664955403</v>
+        <v>0.02983037515625283</v>
       </c>
       <c r="F80">
-        <v>-0.03477691533696887</v>
+        <v>-0.05936101808652639</v>
       </c>
       <c r="G80">
-        <v>-0.0008344456848753894</v>
+        <v>-0.001866673465254988</v>
       </c>
       <c r="H80">
-        <v>0.1029789947560871</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.02203998769919176</v>
+      </c>
+      <c r="I80">
+        <v>0.06071329400601203</v>
+      </c>
+      <c r="J80">
+        <v>0.1311688756695214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1059531576253918</v>
+        <v>-0.1373810165721076</v>
       </c>
       <c r="C81">
-        <v>0.001362658412717991</v>
+        <v>0.04153964026966107</v>
       </c>
       <c r="D81">
-        <v>-0.008170859532797682</v>
+        <v>0.0323797316751264</v>
       </c>
       <c r="E81">
-        <v>-0.02669079261431723</v>
+        <v>0.02551801156732607</v>
       </c>
       <c r="F81">
-        <v>0.1360283110702632</v>
+        <v>0.0009853982313948718</v>
       </c>
       <c r="G81">
-        <v>0.01885973155907423</v>
+        <v>-0.01332983166177123</v>
       </c>
       <c r="H81">
-        <v>0.01809069068536302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.02892255043904701</v>
+      </c>
+      <c r="I81">
+        <v>-0.01749092401305059</v>
+      </c>
+      <c r="J81">
+        <v>0.1752200969580778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1148699951971756</v>
+        <v>-0.1584300399515465</v>
       </c>
       <c r="C82">
-        <v>-0.02135110928518521</v>
+        <v>0.05735674454192503</v>
       </c>
       <c r="D82">
-        <v>-0.02293432851407173</v>
+        <v>0.0004806420647849935</v>
       </c>
       <c r="E82">
-        <v>0.03494228255891203</v>
+        <v>0.007686493693793432</v>
       </c>
       <c r="F82">
-        <v>0.2359238834406819</v>
+        <v>-0.03956097432959733</v>
       </c>
       <c r="G82">
-        <v>0.01872990192315756</v>
+        <v>-0.05386735588626928</v>
       </c>
       <c r="H82">
-        <v>0.04813518837323884</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.03119182522262763</v>
+      </c>
+      <c r="I82">
+        <v>-0.1100132966131421</v>
+      </c>
+      <c r="J82">
+        <v>0.2161354383204993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1109497290760928</v>
+        <v>-0.08680311801139268</v>
       </c>
       <c r="C83">
-        <v>-0.04911495839588548</v>
+        <v>0.0497646910449637</v>
       </c>
       <c r="D83">
-        <v>-0.001034037054922587</v>
+        <v>0.003276000476744713</v>
       </c>
       <c r="E83">
-        <v>0.09883989840904082</v>
+        <v>-0.02773260490507241</v>
       </c>
       <c r="F83">
-        <v>-0.02758891386512308</v>
+        <v>0.0333431730881428</v>
       </c>
       <c r="G83">
-        <v>-0.09126078473802765</v>
+        <v>0.01515565002890953</v>
       </c>
       <c r="H83">
-        <v>-0.06794901199229766</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.01435948452082391</v>
+      </c>
+      <c r="I83">
+        <v>0.1081157461709955</v>
+      </c>
+      <c r="J83">
+        <v>0.005208612692142714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05082310465680406</v>
+        <v>-0.06654689568553633</v>
       </c>
       <c r="C84">
-        <v>-0.02837555937204447</v>
+        <v>0.01862619731907018</v>
       </c>
       <c r="D84">
-        <v>0.009221173313851232</v>
+        <v>-0.007442380943993544</v>
       </c>
       <c r="E84">
-        <v>-0.04895211930073564</v>
+        <v>-0.0249773415384242</v>
       </c>
       <c r="F84">
-        <v>0.06122188563355648</v>
+        <v>-0.0362700305758852</v>
       </c>
       <c r="G84">
-        <v>0.02502984059177233</v>
+        <v>-0.03583965011666598</v>
       </c>
       <c r="H84">
-        <v>0.02269405838702646</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.01322962542009681</v>
+      </c>
+      <c r="I84">
+        <v>0.01207774115102001</v>
+      </c>
+      <c r="J84">
+        <v>-0.04415652748995041</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.108381092216283</v>
+        <v>-0.1235397549369086</v>
       </c>
       <c r="C85">
-        <v>-0.01239146686242854</v>
+        <v>0.02541949905561258</v>
       </c>
       <c r="D85">
-        <v>-0.04648546918631907</v>
+        <v>0.01637403070352915</v>
       </c>
       <c r="E85">
-        <v>-0.07593539349933322</v>
+        <v>0.009960198697628186</v>
       </c>
       <c r="F85">
-        <v>0.1366883122083361</v>
+        <v>-0.005196670508778416</v>
       </c>
       <c r="G85">
-        <v>0.01253668573070378</v>
+        <v>-0.01825280281555557</v>
       </c>
       <c r="H85">
-        <v>0.09648419626707001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.01245372393047947</v>
+      </c>
+      <c r="I85">
+        <v>-0.04479760209737463</v>
+      </c>
+      <c r="J85">
+        <v>0.1217642602193597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.07125776861026144</v>
+        <v>-0.1209034308530509</v>
       </c>
       <c r="C86">
-        <v>-0.01814974093367758</v>
+        <v>-0.0651768382710273</v>
       </c>
       <c r="D86">
-        <v>0.0608009299751154</v>
+        <v>0.3249643220519756</v>
       </c>
       <c r="E86">
-        <v>0.1108516430982318</v>
+        <v>-0.8642814735494475</v>
       </c>
       <c r="F86">
-        <v>0.02231046656392965</v>
+        <v>0.1800205474269328</v>
       </c>
       <c r="G86">
-        <v>0.05819380844249772</v>
+        <v>0.1076423349524845</v>
       </c>
       <c r="H86">
-        <v>0.2341130585582523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.06837664963512897</v>
+      </c>
+      <c r="I86">
+        <v>0.1462619397004493</v>
+      </c>
+      <c r="J86">
+        <v>0.02938338154710861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1096866603327883</v>
+        <v>-0.1137806395815895</v>
       </c>
       <c r="C87">
-        <v>-0.0536493618083127</v>
+        <v>0.09988821529692152</v>
       </c>
       <c r="D87">
-        <v>0.0447892844245206</v>
+        <v>-0.05170091771568014</v>
       </c>
       <c r="E87">
-        <v>0.02107164505380241</v>
+        <v>0.001462392804208828</v>
       </c>
       <c r="F87">
-        <v>-0.02452792427124014</v>
+        <v>0.03044076305632877</v>
       </c>
       <c r="G87">
-        <v>-0.130799367225151</v>
+        <v>-0.02707350954742681</v>
       </c>
       <c r="H87">
-        <v>0.0493275335114384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.006186471142955106</v>
+      </c>
+      <c r="I87">
+        <v>0.2198309081948529</v>
+      </c>
+      <c r="J87">
+        <v>-0.142161002990563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07338110990885639</v>
+        <v>-0.05407928231025944</v>
       </c>
       <c r="C88">
-        <v>-0.03844010854429898</v>
+        <v>0.02513232965452427</v>
       </c>
       <c r="D88">
-        <v>0.02554757054433775</v>
+        <v>0.02659336853681488</v>
       </c>
       <c r="E88">
-        <v>0.02486735257662322</v>
+        <v>0.03392872204578346</v>
       </c>
       <c r="F88">
-        <v>0.03014443529829658</v>
+        <v>-0.05001761073169464</v>
       </c>
       <c r="G88">
-        <v>-0.04554126520335133</v>
+        <v>-0.01544619650751882</v>
       </c>
       <c r="H88">
-        <v>0.00681187766161444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.008819045640491421</v>
+      </c>
+      <c r="I88">
+        <v>0.04304491088500799</v>
+      </c>
+      <c r="J88">
+        <v>0.04696128724285485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09282283698884686</v>
+        <v>-0.1317647548377818</v>
       </c>
       <c r="C89">
-        <v>0.3856244604774701</v>
+        <v>-0.3603648202864373</v>
       </c>
       <c r="D89">
-        <v>0.03500620015489609</v>
+        <v>-0.1091886024502496</v>
       </c>
       <c r="E89">
-        <v>0.05080752356704495</v>
+        <v>0.002733775646273107</v>
       </c>
       <c r="F89">
-        <v>-0.02175440392829021</v>
+        <v>0.04101107788160734</v>
       </c>
       <c r="G89">
-        <v>0.003751087264780735</v>
+        <v>-0.05130550767506024</v>
       </c>
       <c r="H89">
-        <v>-0.03589971400071344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.003598928578546345</v>
+      </c>
+      <c r="I89">
+        <v>0.01205812689115502</v>
+      </c>
+      <c r="J89">
+        <v>0.01128488141704576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07389070713215107</v>
+        <v>-0.09886047700286106</v>
       </c>
       <c r="C90">
-        <v>0.2980470899143073</v>
+        <v>-0.2881667312636179</v>
       </c>
       <c r="D90">
-        <v>0.03340401633780003</v>
+        <v>-0.088298648648622</v>
       </c>
       <c r="E90">
-        <v>0.01717929928983298</v>
+        <v>0.004277813381161842</v>
       </c>
       <c r="F90">
-        <v>-0.02842583734799604</v>
+        <v>-0.02975773149544027</v>
       </c>
       <c r="G90">
-        <v>-0.02113660778150888</v>
+        <v>-0.02264806378326137</v>
       </c>
       <c r="H90">
-        <v>-0.04946155132331813</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05105115784709459</v>
+      </c>
+      <c r="I90">
+        <v>0.0418229739673032</v>
+      </c>
+      <c r="J90">
+        <v>-0.04925250146106287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08053210327113598</v>
+        <v>-0.08775298112917543</v>
       </c>
       <c r="C91">
-        <v>-0.02604392720176378</v>
+        <v>0.02297983599563934</v>
       </c>
       <c r="D91">
-        <v>-0.0139793868860969</v>
+        <v>0.02191736718297085</v>
       </c>
       <c r="E91">
-        <v>-0.01562214604106795</v>
+        <v>-0.007214001282891874</v>
       </c>
       <c r="F91">
-        <v>0.0645869267859556</v>
+        <v>0.002173163166214712</v>
       </c>
       <c r="G91">
-        <v>0.04992911743075693</v>
+        <v>-0.02302444662013698</v>
       </c>
       <c r="H91">
-        <v>-0.02235327980728993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.002569900477163982</v>
+      </c>
+      <c r="I91">
+        <v>-0.03510285771977851</v>
+      </c>
+      <c r="J91">
+        <v>0.0820882258015041</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06687602984684421</v>
+        <v>-0.110708654340117</v>
       </c>
       <c r="C92">
-        <v>0.3586962262025447</v>
+        <v>-0.3208243975290129</v>
       </c>
       <c r="D92">
-        <v>0.03812145324259567</v>
+        <v>-0.1210421254693498</v>
       </c>
       <c r="E92">
-        <v>0.01608163723047411</v>
+        <v>-0.005122889896686806</v>
       </c>
       <c r="F92">
-        <v>-0.06248048265727568</v>
+        <v>0.01435713827261362</v>
       </c>
       <c r="G92">
-        <v>-0.007077939308424354</v>
+        <v>-0.005537804269513158</v>
       </c>
       <c r="H92">
-        <v>-0.0221213496813713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.06032858403062607</v>
+      </c>
+      <c r="I92">
+        <v>0.04751772962502551</v>
+      </c>
+      <c r="J92">
+        <v>0.03972201409854953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08058211063477713</v>
+        <v>-0.1006981445246481</v>
       </c>
       <c r="C93">
-        <v>0.3059388128419502</v>
+        <v>-0.3144330267559648</v>
       </c>
       <c r="D93">
-        <v>0.007909749784109609</v>
+        <v>-0.09465703975138538</v>
       </c>
       <c r="E93">
-        <v>-0.0008420220783380514</v>
+        <v>-0.01085709570073309</v>
       </c>
       <c r="F93">
-        <v>-0.03046885322866268</v>
+        <v>-0.04572443612220854</v>
       </c>
       <c r="G93">
-        <v>0.0277007137274768</v>
+        <v>-0.02774814064158158</v>
       </c>
       <c r="H93">
-        <v>0.006452052286648042</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.02598836271497635</v>
+      </c>
+      <c r="I93">
+        <v>0.04064594056290118</v>
+      </c>
+      <c r="J93">
+        <v>-0.01513031321668726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09415610044644916</v>
+        <v>-0.1386763045571551</v>
       </c>
       <c r="C94">
-        <v>-0.04525980960265109</v>
+        <v>0.04078335903367446</v>
       </c>
       <c r="D94">
-        <v>-0.01023215851171401</v>
+        <v>0.02342489474136266</v>
       </c>
       <c r="E94">
-        <v>-0.04532025654659822</v>
+        <v>0.05316636595006505</v>
       </c>
       <c r="F94">
-        <v>0.1153202114470219</v>
+        <v>0.01078072056973707</v>
       </c>
       <c r="G94">
-        <v>0.06663341149745546</v>
+        <v>-0.01054451193052515</v>
       </c>
       <c r="H94">
-        <v>0.02883901829747322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.00332713297640756</v>
+      </c>
+      <c r="I94">
+        <v>-0.07317501221453374</v>
+      </c>
+      <c r="J94">
+        <v>0.1252640332084404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1308318057969092</v>
+        <v>-0.1207234618397781</v>
       </c>
       <c r="C95">
-        <v>-0.06994343806677651</v>
+        <v>0.04426683222931044</v>
       </c>
       <c r="D95">
-        <v>0.09582573093965707</v>
+        <v>0.03267254783136039</v>
       </c>
       <c r="E95">
-        <v>0.05725943164684717</v>
+        <v>0.03428807673217096</v>
       </c>
       <c r="F95">
-        <v>-0.09521676897714185</v>
+        <v>0.02715837907179127</v>
       </c>
       <c r="G95">
-        <v>-0.1092337815373998</v>
+        <v>-0.03232155067346729</v>
       </c>
       <c r="H95">
-        <v>0.05876568122479933</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.05080314602250984</v>
+      </c>
+      <c r="I95">
+        <v>0.1295828912933542</v>
+      </c>
+      <c r="J95">
+        <v>-0.05718990475509547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01058568682068883</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0001995419033990914</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001731655864389531</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005475876666265475</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005573426640212809</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.008337243480967961</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.002354047183658887</v>
+      </c>
+      <c r="I96">
+        <v>0.03062700912549976</v>
+      </c>
+      <c r="J96">
+        <v>-0.02228206674261441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1434573903577869</v>
+        <v>-0.1705754882195452</v>
       </c>
       <c r="C97">
-        <v>0.03898050020590997</v>
+        <v>-0.02667985864043174</v>
       </c>
       <c r="D97">
-        <v>-0.2500640502198963</v>
+        <v>0.03759812057230048</v>
       </c>
       <c r="E97">
-        <v>-0.8339172024774062</v>
+        <v>0.1210718386878953</v>
       </c>
       <c r="F97">
-        <v>-0.1863594740715089</v>
+        <v>-0.01434491613174283</v>
       </c>
       <c r="G97">
-        <v>-0.1681353411325706</v>
+        <v>0.9061378961853133</v>
       </c>
       <c r="H97">
-        <v>-0.02803281454796635</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1161170790914611</v>
+      </c>
+      <c r="I97">
+        <v>-0.2235767602673553</v>
+      </c>
+      <c r="J97">
+        <v>-0.08538050389994514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3194602766452113</v>
+        <v>-0.2699777776985409</v>
       </c>
       <c r="C98">
-        <v>-0.06890808779862868</v>
+        <v>0.04476918696314003</v>
       </c>
       <c r="D98">
-        <v>-0.1609114349559487</v>
+        <v>-0.03106893801700907</v>
       </c>
       <c r="E98">
-        <v>0.1487577510580661</v>
+        <v>-0.1096977463849468</v>
       </c>
       <c r="F98">
-        <v>-0.06716630196991867</v>
+        <v>0.0955009943779955</v>
       </c>
       <c r="G98">
-        <v>0.1914081770966675</v>
+        <v>-0.03950944404173565</v>
       </c>
       <c r="H98">
-        <v>-0.177317025140155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.2607363372059129</v>
+      </c>
+      <c r="I98">
+        <v>-0.205266415183027</v>
+      </c>
+      <c r="J98">
+        <v>0.2568778523522764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08905429411267635</v>
+        <v>-0.05964258444539689</v>
       </c>
       <c r="C99">
-        <v>-0.01246832438909444</v>
+        <v>-0.003145500875413176</v>
       </c>
       <c r="D99">
-        <v>-0.02028155633174591</v>
+        <v>0.01646869124847204</v>
       </c>
       <c r="E99">
-        <v>0.0003868334645642638</v>
+        <v>0.04814368658001436</v>
       </c>
       <c r="F99">
-        <v>0.01811111325179088</v>
+        <v>0.005882383688189842</v>
       </c>
       <c r="G99">
-        <v>-0.01358828216471486</v>
+        <v>-0.01994364093992906</v>
       </c>
       <c r="H99">
-        <v>-0.0707812488231358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02208266668939221</v>
+      </c>
+      <c r="I99">
+        <v>-0.0241624483337112</v>
+      </c>
+      <c r="J99">
+        <v>0.03039607301001599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.08081368439603433</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2848757398086424</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8661539331841935</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2565162274358348</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1121340351021221</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.09806279349836221</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.07392414965032046</v>
+      </c>
+      <c r="I100">
+        <v>0.08640443545449646</v>
+      </c>
+      <c r="J100">
+        <v>0.03233229899687876</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05912571463300673</v>
+        <v>-0.03663171907532019</v>
       </c>
       <c r="C101">
-        <v>0.00281102733129239</v>
+        <v>0.008419374904132255</v>
       </c>
       <c r="D101">
-        <v>0.05339547007467024</v>
+        <v>-0.004710795620279231</v>
       </c>
       <c r="E101">
-        <v>0.02146681209906167</v>
+        <v>0.009252848335548403</v>
       </c>
       <c r="F101">
-        <v>0.02817512819518321</v>
+        <v>-0.02308212958198006</v>
       </c>
       <c r="G101">
-        <v>-0.03019773250921839</v>
+        <v>-0.02710765002597753</v>
       </c>
       <c r="H101">
-        <v>0.09816571663156029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.07360486942164324</v>
+      </c>
+      <c r="I101">
+        <v>0.07641916881956418</v>
+      </c>
+      <c r="J101">
+        <v>0.07128803711919621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
